--- a/natmiOut/OldD2/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H2">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I2">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J2">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N2">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O2">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P2">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q2">
-        <v>301.8964898055276</v>
+        <v>325.798717392879</v>
       </c>
       <c r="R2">
-        <v>301.8964898055276</v>
+        <v>1303.194869571516</v>
       </c>
       <c r="S2">
-        <v>0.006926192825129809</v>
+        <v>0.00675496439148297</v>
       </c>
       <c r="T2">
-        <v>0.006926192825129809</v>
+        <v>0.003316622941323343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H3">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I3">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J3">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N3">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O3">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P3">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q3">
-        <v>130.1244906761293</v>
+        <v>151.6409489317267</v>
       </c>
       <c r="R3">
-        <v>130.1244906761293</v>
+        <v>909.8456935903599</v>
       </c>
       <c r="S3">
-        <v>0.002985352079698727</v>
+        <v>0.003144055380332476</v>
       </c>
       <c r="T3">
-        <v>0.002985352079698727</v>
+        <v>0.002315551703651361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H4">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I4">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J4">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N4">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O4">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P4">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q4">
-        <v>931.6968460121459</v>
+        <v>1045.219662805605</v>
       </c>
       <c r="R4">
-        <v>931.6968460121459</v>
+        <v>6271.317976833629</v>
       </c>
       <c r="S4">
-        <v>0.02137524690731678</v>
+        <v>0.02167111540533037</v>
       </c>
       <c r="T4">
-        <v>0.02137524690731678</v>
+        <v>0.01596046574457334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H5">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I5">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J5">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N5">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O5">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P5">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q5">
-        <v>1138.199848573867</v>
+        <v>1228.200333161886</v>
       </c>
       <c r="R5">
-        <v>1138.199848573867</v>
+        <v>7369.201998971316</v>
       </c>
       <c r="S5">
-        <v>0.02611289594600584</v>
+        <v>0.02546495450475152</v>
       </c>
       <c r="T5">
-        <v>0.02611289594600584</v>
+        <v>0.01875457383980505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H6">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I6">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J6">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N6">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O6">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P6">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q6">
-        <v>264.7450950788749</v>
+        <v>301.337323138414</v>
       </c>
       <c r="R6">
-        <v>264.7450950788749</v>
+        <v>1808.023938830484</v>
       </c>
       <c r="S6">
-        <v>0.006073855244904667</v>
+        <v>0.006247792821020093</v>
       </c>
       <c r="T6">
-        <v>0.006073855244904667</v>
+        <v>0.004601409822890575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.2591112668206</v>
+        <v>22.556342</v>
       </c>
       <c r="H7">
-        <v>21.2591112668206</v>
+        <v>45.112684</v>
       </c>
       <c r="I7">
-        <v>0.06698883709196432</v>
+        <v>0.06676290190277349</v>
       </c>
       <c r="J7">
-        <v>0.06698883709196432</v>
+        <v>0.04665728030990886</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N7">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O7">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P7">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q7">
-        <v>153.2234191091418</v>
+        <v>167.844831040854</v>
       </c>
       <c r="R7">
-        <v>153.2234191091418</v>
+        <v>671.3793241634161</v>
       </c>
       <c r="S7">
-        <v>0.003515294088908498</v>
+        <v>0.00348001939985607</v>
       </c>
       <c r="T7">
-        <v>0.003515294088908498</v>
+        <v>0.001708656257665194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H8">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I8">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J8">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N8">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O8">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P8">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q8">
-        <v>1757.574120460292</v>
+        <v>1968.118588097166</v>
       </c>
       <c r="R8">
-        <v>1757.574120460292</v>
+        <v>11808.711528583</v>
       </c>
       <c r="S8">
-        <v>0.04032275191608743</v>
+        <v>0.04080608753526872</v>
       </c>
       <c r="T8">
-        <v>0.04032275191608743</v>
+        <v>0.03005309833367061</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H9">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I9">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J9">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N9">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O9">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P9">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q9">
-        <v>757.5558013203964</v>
+        <v>916.0483279291989</v>
       </c>
       <c r="R9">
-        <v>757.5558013203964</v>
+        <v>8244.434951362789</v>
       </c>
       <c r="S9">
-        <v>0.01738005486291256</v>
+        <v>0.01899293491870113</v>
       </c>
       <c r="T9">
-        <v>0.01738005486291256</v>
+        <v>0.02098203632963065</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H10">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I10">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J10">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N10">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O10">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P10">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q10">
-        <v>5424.131515143714</v>
+        <v>6314.071042003819</v>
       </c>
       <c r="R10">
-        <v>5424.131515143714</v>
+        <v>56826.63937803438</v>
       </c>
       <c r="S10">
-        <v>0.1244419264594609</v>
+        <v>0.1309131152981077</v>
       </c>
       <c r="T10">
-        <v>0.1244419264594609</v>
+        <v>0.1446234482963136</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H11">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I11">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J11">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N11">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O11">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P11">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q11">
-        <v>6626.346000425156</v>
+        <v>7419.439600457661</v>
       </c>
       <c r="R11">
-        <v>6626.346000425156</v>
+        <v>66774.95640411896</v>
       </c>
       <c r="S11">
-        <v>0.1520234639181684</v>
+        <v>0.1538313309116347</v>
       </c>
       <c r="T11">
-        <v>0.1520234639181684</v>
+        <v>0.1699418540441188</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H12">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I12">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J12">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N12">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O12">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P12">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q12">
-        <v>1541.286975311199</v>
+        <v>1820.349667739722</v>
       </c>
       <c r="R12">
-        <v>1541.286975311199</v>
+        <v>16383.1470096575</v>
       </c>
       <c r="S12">
-        <v>0.03536063237019787</v>
+        <v>0.03774231305767087</v>
       </c>
       <c r="T12">
-        <v>0.03536063237019787</v>
+        <v>0.04169500854555132</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.765810628069</v>
+        <v>136.2606836666667</v>
       </c>
       <c r="H13">
-        <v>123.765810628069</v>
+        <v>408.782051</v>
       </c>
       <c r="I13">
-        <v>0.3899940887302467</v>
+        <v>0.4033082428366495</v>
       </c>
       <c r="J13">
-        <v>0.3899940887302467</v>
+        <v>0.4227781867105593</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N13">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O13">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P13">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q13">
-        <v>892.0326176966956</v>
+        <v>1013.934414877329</v>
       </c>
       <c r="R13">
-        <v>892.0326176966956</v>
+        <v>6083.606489263974</v>
       </c>
       <c r="S13">
-        <v>0.0204652592034195</v>
+        <v>0.02102246111526643</v>
       </c>
       <c r="T13">
-        <v>0.0204652592034195</v>
+        <v>0.01548274116127434</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H14">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I14">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J14">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N14">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O14">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P14">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q14">
-        <v>826.5860644973335</v>
+        <v>867.151761191016</v>
       </c>
       <c r="R14">
-        <v>826.5860644973335</v>
+        <v>5202.910567146096</v>
       </c>
       <c r="S14">
-        <v>0.01896376626625121</v>
+        <v>0.017979135448202</v>
       </c>
       <c r="T14">
-        <v>0.01896376626625121</v>
+        <v>0.01324137544703817</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H15">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I15">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J15">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N15">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O15">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P15">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q15">
-        <v>356.2780432193429</v>
+        <v>403.6102934569067</v>
       </c>
       <c r="R15">
-        <v>356.2780432193429</v>
+        <v>3632.49264111216</v>
       </c>
       <c r="S15">
-        <v>0.008173829474753697</v>
+        <v>0.008368274688600684</v>
       </c>
       <c r="T15">
-        <v>0.008173829474753697</v>
+        <v>0.009244671467792077</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H16">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I16">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J16">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N16">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O16">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P16">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q16">
-        <v>2550.965828538948</v>
+        <v>2781.975566651419</v>
       </c>
       <c r="R16">
-        <v>2550.965828538948</v>
+        <v>25037.78009986277</v>
       </c>
       <c r="S16">
-        <v>0.05852496407016614</v>
+        <v>0.05768023287840215</v>
       </c>
       <c r="T16">
-        <v>0.05852496407016614</v>
+        <v>0.06372099661988184</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H17">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I17">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J17">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N17">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O17">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P17">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q17">
-        <v>3116.366586607817</v>
+        <v>3269.000229710544</v>
       </c>
       <c r="R17">
-        <v>3116.366586607817</v>
+        <v>29421.0020673949</v>
       </c>
       <c r="S17">
-        <v>0.07149654474797451</v>
+        <v>0.06777798367086825</v>
       </c>
       <c r="T17">
-        <v>0.07149654474797451</v>
+        <v>0.07487626961386573</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H18">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I18">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J18">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N18">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O18">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P18">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q18">
-        <v>724.8663486521027</v>
+        <v>802.044871640656</v>
       </c>
       <c r="R18">
-        <v>724.8663486521027</v>
+        <v>7218.403844765904</v>
       </c>
       <c r="S18">
-        <v>0.01663008439232377</v>
+        <v>0.01662923841953276</v>
       </c>
       <c r="T18">
-        <v>0.01663008439232377</v>
+        <v>0.01837079346326679</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>58.2069871964123</v>
+        <v>60.036368</v>
       </c>
       <c r="H19">
-        <v>58.2069871964123</v>
+        <v>180.109104</v>
       </c>
       <c r="I19">
-        <v>0.1834139881943269</v>
+        <v>0.1776973477074789</v>
       </c>
       <c r="J19">
-        <v>0.1834139881943269</v>
+        <v>0.1862757922293989</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N19">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O19">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P19">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q19">
-        <v>419.5224100546402</v>
+        <v>446.7388392704161</v>
       </c>
       <c r="R19">
-        <v>419.5224100546402</v>
+        <v>2680.433035622496</v>
       </c>
       <c r="S19">
-        <v>0.009624799242857618</v>
+        <v>0.009262482601873042</v>
       </c>
       <c r="T19">
-        <v>0.009624799242857618</v>
+        <v>0.006821685617554284</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H20">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I20">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J20">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N20">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O20">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P20">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q20">
-        <v>940.968653957928</v>
+        <v>978.2783442229564</v>
       </c>
       <c r="R20">
-        <v>940.968653957928</v>
+        <v>5869.670065337739</v>
       </c>
       <c r="S20">
-        <v>0.02158796329137088</v>
+        <v>0.02028318414837758</v>
       </c>
       <c r="T20">
-        <v>0.02158796329137088</v>
+        <v>0.01493827427597136</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H21">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I21">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J21">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N21">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O21">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P21">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q21">
-        <v>405.579630678556</v>
+        <v>455.3334574931322</v>
       </c>
       <c r="R21">
-        <v>405.579630678556</v>
+        <v>4098.00111743819</v>
       </c>
       <c r="S21">
-        <v>0.009304920139462906</v>
+        <v>0.009440679558931128</v>
       </c>
       <c r="T21">
-        <v>0.009304920139462906</v>
+        <v>0.01042938768177703</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H22">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I22">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J22">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N22">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O22">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P22">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q22">
-        <v>2903.967275848875</v>
+        <v>3138.489215860532</v>
       </c>
       <c r="R22">
-        <v>2903.967275848875</v>
+        <v>28246.40294274479</v>
       </c>
       <c r="S22">
-        <v>0.06662362097470127</v>
+        <v>0.06507202688163369</v>
       </c>
       <c r="T22">
-        <v>0.06662362097470127</v>
+        <v>0.07188692205377768</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H23">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I23">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J23">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N23">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O23">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P23">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q23">
-        <v>3547.607923952945</v>
+        <v>3687.926698774521</v>
       </c>
       <c r="R23">
-        <v>3547.607923952945</v>
+        <v>33191.34028897069</v>
       </c>
       <c r="S23">
-        <v>0.08139020286418266</v>
+        <v>0.07646381707077195</v>
       </c>
       <c r="T23">
-        <v>0.08139020286418266</v>
+        <v>0.08447175723755322</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H24">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I24">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J24">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N24">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O24">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P24">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q24">
-        <v>825.1730118452385</v>
+        <v>904.8279253258622</v>
       </c>
       <c r="R24">
-        <v>825.1730118452385</v>
+        <v>8143.451327932761</v>
       </c>
       <c r="S24">
-        <v>0.0189313476212157</v>
+        <v>0.01876029612671889</v>
       </c>
       <c r="T24">
-        <v>0.0189313476212157</v>
+        <v>0.02072503362804995</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>66.2616426112409</v>
+        <v>67.73010366666666</v>
       </c>
       <c r="H25">
-        <v>66.2616426112409</v>
+        <v>203.190311</v>
       </c>
       <c r="I25">
-        <v>0.2087947293101599</v>
+        <v>0.200469485121406</v>
       </c>
       <c r="J25">
-        <v>0.2087947293101599</v>
+        <v>0.2101472680407257</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N25">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O25">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P25">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q25">
-        <v>477.5757231454925</v>
+        <v>503.988980407869</v>
       </c>
       <c r="R25">
-        <v>477.5757231454925</v>
+        <v>3023.933882447214</v>
       </c>
       <c r="S25">
-        <v>0.01095667441922647</v>
+        <v>0.01044948133497279</v>
       </c>
       <c r="T25">
-        <v>0.01095667441922647</v>
+        <v>0.007695893163596449</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H26">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I26">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J26">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N26">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O26">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P26">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q26">
-        <v>340.8023838915623</v>
+        <v>392.189603915593</v>
       </c>
       <c r="R26">
-        <v>340.8023838915623</v>
+        <v>2353.137623493558</v>
       </c>
       <c r="S26">
-        <v>0.007818782615251376</v>
+        <v>0.008131483237133039</v>
       </c>
       <c r="T26">
-        <v>0.007818782615251376</v>
+        <v>0.005988720803310019</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H27">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I27">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J27">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N27">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O27">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P27">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q27">
-        <v>146.89384647588</v>
+        <v>182.5421664481311</v>
       </c>
       <c r="R27">
-        <v>146.89384647588</v>
+        <v>1642.87949803318</v>
       </c>
       <c r="S27">
-        <v>0.003370079281717872</v>
+        <v>0.003784747356185368</v>
       </c>
       <c r="T27">
-        <v>0.003370079281717872</v>
+        <v>0.004181118235063467</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H28">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I28">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J28">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N28">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O28">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P28">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q28">
-        <v>1051.766141400745</v>
+        <v>1258.21331907269</v>
       </c>
       <c r="R28">
-        <v>1051.766141400745</v>
+        <v>11323.91987165421</v>
       </c>
       <c r="S28">
-        <v>0.0241299099137486</v>
+        <v>0.02608723028512263</v>
       </c>
       <c r="T28">
-        <v>0.0241299099137486</v>
+        <v>0.02881930654345214</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H29">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I29">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J29">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N29">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O29">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P29">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q29">
-        <v>1284.881523428322</v>
+        <v>1478.481579198162</v>
       </c>
       <c r="R29">
-        <v>1284.881523428322</v>
+        <v>13306.33421278346</v>
       </c>
       <c r="S29">
-        <v>0.02947810752766214</v>
+        <v>0.03065417353655113</v>
       </c>
       <c r="T29">
-        <v>0.02947810752766214</v>
+        <v>0.03386453886941997</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H30">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I30">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J30">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N30">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O30">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P30">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q30">
-        <v>298.8632282031484</v>
+        <v>362.7434949786046</v>
       </c>
       <c r="R30">
-        <v>298.8632282031484</v>
+        <v>3264.691454807441</v>
       </c>
       <c r="S30">
-        <v>0.006856602897931007</v>
+        <v>0.007520960829528766</v>
       </c>
       <c r="T30">
-        <v>0.006856602897931007</v>
+        <v>0.008308619706979626</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>23.9988076834399</v>
+        <v>27.15284733333333</v>
       </c>
       <c r="H31">
-        <v>23.9988076834399</v>
+        <v>81.45854199999999</v>
       </c>
       <c r="I31">
-        <v>0.07562179802014692</v>
+        <v>0.0803677689802858</v>
       </c>
       <c r="J31">
-        <v>0.07562179802014692</v>
+        <v>0.08424757054425056</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N31">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O31">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P31">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q31">
-        <v>172.9695715708695</v>
+        <v>202.048056947418</v>
       </c>
       <c r="R31">
-        <v>172.9695715708695</v>
+        <v>1212.288341684508</v>
       </c>
       <c r="S31">
-        <v>0.003968315783835915</v>
+        <v>0.004189173735764874</v>
       </c>
       <c r="T31">
-        <v>0.003968315783835915</v>
+        <v>0.003085266386025336</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H32">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I32">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J32">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N32">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O32">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P32">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q32">
-        <v>338.8409042954972</v>
+        <v>348.3994185507983</v>
       </c>
       <c r="R32">
-        <v>338.8409042954972</v>
+        <v>1393.597674203193</v>
       </c>
       <c r="S32">
-        <v>0.007773781807478961</v>
+        <v>0.007223557186341004</v>
       </c>
       <c r="T32">
-        <v>0.007773781807478961</v>
+        <v>0.003546697524029439</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H33">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I33">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J33">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N33">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O33">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P33">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q33">
-        <v>146.0484026167148</v>
+        <v>162.160302100255</v>
       </c>
       <c r="R33">
-        <v>146.0484026167148</v>
+        <v>972.9618126015299</v>
       </c>
       <c r="S33">
-        <v>0.003350682874707072</v>
+        <v>0.003362158927956803</v>
       </c>
       <c r="T33">
-        <v>0.003350682874707072</v>
+        <v>0.002476181838996022</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H34">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I34">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J34">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N34">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O34">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P34">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q34">
-        <v>1045.712727681532</v>
+        <v>1117.726692398862</v>
       </c>
       <c r="R34">
-        <v>1045.712727681532</v>
+        <v>6706.360154393169</v>
       </c>
       <c r="S34">
-        <v>0.02399103082079669</v>
+        <v>0.02317444361654621</v>
       </c>
       <c r="T34">
-        <v>0.02399103082079669</v>
+        <v>0.01706764541526345</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H35">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I35">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J35">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N35">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O35">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P35">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q35">
-        <v>1277.486419958718</v>
+        <v>1313.400756644141</v>
       </c>
       <c r="R35">
-        <v>1277.486419958718</v>
+        <v>7880.404539864843</v>
       </c>
       <c r="S35">
-        <v>0.02930844701711677</v>
+        <v>0.02723146184820393</v>
       </c>
       <c r="T35">
-        <v>0.02930844701711677</v>
+        <v>0.02005558116754853</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H36">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I36">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J36">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N36">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O36">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P36">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q36">
-        <v>297.1431283686322</v>
+        <v>322.2411340633845</v>
       </c>
       <c r="R36">
-        <v>297.1431283686322</v>
+        <v>1933.446804380307</v>
       </c>
       <c r="S36">
-        <v>0.00681713989145482</v>
+        <v>0.006681203055334154</v>
       </c>
       <c r="T36">
-        <v>0.00681713989145482</v>
+        <v>0.004920610245606963</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>23.8606831460953</v>
+        <v>24.1210785</v>
       </c>
       <c r="H37">
-        <v>23.8606831460953</v>
+        <v>48.242157</v>
       </c>
       <c r="I37">
-        <v>0.07518655865315506</v>
+        <v>0.07139425345140619</v>
       </c>
       <c r="J37">
-        <v>0.07518655865315506</v>
+        <v>0.04989390216515674</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N37">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O37">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P37">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q37">
-        <v>171.9740495281471</v>
+        <v>179.4882497062545</v>
       </c>
       <c r="R37">
-        <v>171.9740495281471</v>
+        <v>717.952998825018</v>
       </c>
       <c r="S37">
-        <v>0.003945476241600746</v>
+        <v>0.003721428817024106</v>
       </c>
       <c r="T37">
-        <v>0.003945476241600746</v>
+        <v>0.001827185973712332</v>
       </c>
     </row>
   </sheetData>
